--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_23_1.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_23_1.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-2573653.805545909</v>
+        <v>-2576252.60051657</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673432</v>
+        <v>603248.4937673431</v>
       </c>
     </row>
     <row r="9">
@@ -656,22 +656,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>334.8056002364957</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>281.4693432559145</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>410.9811492522526</v>
       </c>
       <c r="H2" t="n">
         <v>295.2163363185219</v>
@@ -713,13 +713,13 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>250.9999258468059</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
@@ -741,7 +741,7 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>95.23181436353477</v>
       </c>
       <c r="E3" t="n">
         <v>157.6450804554009</v>
@@ -783,10 +783,10 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>2.116953416516708</v>
       </c>
       <c r="S3" t="n">
-        <v>78.63777741868245</v>
+        <v>128.73407520327</v>
       </c>
       <c r="T3" t="n">
         <v>190.8447241770833</v>
@@ -814,10 +814,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>47.18464126010414</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
@@ -829,13 +829,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>32.38254137863461</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>144.9920054808265</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>97.15402040370427</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -862,7 +862,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>90.13067551456429</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -893,19 +893,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>29.71145624902141</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>68.90171938503806</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
         <v>410.9217256534534</v>
@@ -959,7 +959,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -972,7 +972,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166.5331836498671</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
         <v>172.7084989883157</v>
@@ -1054,10 +1054,10 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -1069,10 +1069,10 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1108,16 +1108,16 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>36.7237677273144</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>20.95866062610959</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1130,7 +1130,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -1139,16 +1139,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>410.9217256534534</v>
+        <v>365.0393359012891</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1181,10 +1181,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>250.995171958902</v>
@@ -1199,7 +1199,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>111.068325668461</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1297,19 +1297,19 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1342,22 +1342,22 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>87.93270968653134</v>
       </c>
       <c r="Y10" t="n">
-        <v>66.554278873348</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1382,10 +1382,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>409.8033385187867</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
-        <v>283.154082144416</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695526</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1433,7 +1433,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>369.7311006784673</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
         <v>386.2379386560536</v>
@@ -1531,22 +1531,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428173</v>
       </c>
       <c r="I13" t="n">
-        <v>81.2658363185655</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012164</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1585,16 +1585,16 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>178.2798710842943</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1613,7 +1613,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722635</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
         <v>406.8760457417114</v>
@@ -1622,7 +1622,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H14" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444154</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1667,7 +1667,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174131</v>
       </c>
       <c r="X14" t="n">
         <v>369.731100678469</v>
@@ -1768,22 +1768,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>27.02919805176188</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.2658363185655</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,10 +1810,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012164</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016447</v>
+        <v>133.8107367464755</v>
       </c>
       <c r="T16" t="n">
         <v>217.4054503272883</v>
@@ -1831,7 +1831,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1847,7 +1847,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>354.6830416206839</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
         <v>381.9303700722618</v>
@@ -2011,10 +2011,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>140.2947128462239</v>
@@ -2047,19 +2047,19 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>217.4054503272883</v>
+        <v>211.6773350344781</v>
       </c>
       <c r="U19" t="n">
-        <v>106.9977768135392</v>
+        <v>286.1844743892442</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
@@ -2081,7 +2081,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710071</v>
       </c>
       <c r="D20" t="n">
         <v>354.683041620683</v>
@@ -2090,7 +2090,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417109</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
         <v>409.8033385187866</v>
@@ -2242,10 +2242,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>1.799772605714705</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -2257,7 +2257,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.2658363185656</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,16 +2284,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012162</v>
+        <v>66.37524671012176</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>181.0262860016447</v>
       </c>
       <c r="T22" t="n">
-        <v>5.421623586788201</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>286.1844743892437</v>
+        <v>286.1844743892442</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2318,7 +2318,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
-        <v>365.2728917710071</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
         <v>354.683041620683</v>
@@ -2366,10 +2366,10 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T23" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576162</v>
       </c>
       <c r="U23" t="n">
         <v>250.9057009881286</v>
@@ -2473,7 +2473,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
@@ -2482,16 +2482,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>66.24118421664596</v>
+        <v>165.5241382922689</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462233</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2521,16 +2521,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012171</v>
+        <v>66.37524671012177</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016447</v>
+        <v>115.4764219077122</v>
       </c>
       <c r="T25" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
-        <v>286.1844743892442</v>
+        <v>286.1844743892444</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2542,7 +2542,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2564,7 +2564,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417109</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
         <v>409.8033385187866</v>
@@ -2731,7 +2731,7 @@
         <v>116.0100653541841</v>
       </c>
       <c r="I28" t="n">
-        <v>56.98118882652578</v>
+        <v>56.98118882652551</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>42.09059921808158</v>
+        <v>42.09059921808192</v>
       </c>
       <c r="S28" t="n">
         <v>156.7416385096048</v>
@@ -2767,7 +2767,7 @@
         <v>193.1208028352485</v>
       </c>
       <c r="U28" t="n">
-        <v>261.8998268972048</v>
+        <v>261.8998268972055</v>
       </c>
       <c r="V28" t="n">
         <v>227.8529958317882</v>
@@ -2776,7 +2776,7 @@
         <v>262.2383508445512</v>
       </c>
       <c r="X28" t="n">
-        <v>201.4250078969983</v>
+        <v>201.4250078969974</v>
       </c>
       <c r="Y28" t="n">
         <v>194.300005860055</v>
@@ -2801,7 +2801,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417109</v>
       </c>
       <c r="G29" t="n">
         <v>409.8033385187866</v>
@@ -2947,7 +2947,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>155.5473326898975</v>
+        <v>155.5473326898976</v>
       </c>
       <c r="C31" t="n">
         <v>142.9621736065881</v>
@@ -2956,7 +2956,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E31" t="n">
-        <v>122.1493151545294</v>
+        <v>122.1493151545295</v>
       </c>
       <c r="F31" t="n">
         <v>121.1364005308915</v>
@@ -2965,10 +2965,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H31" t="n">
-        <v>116.0100653541841</v>
+        <v>116.0100653541842</v>
       </c>
       <c r="I31" t="n">
-        <v>56.98118882652578</v>
+        <v>56.98118882652582</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,28 +2995,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>42.09059921808203</v>
+        <v>42.09059921808198</v>
       </c>
       <c r="S31" t="n">
-        <v>156.7416385096048</v>
+        <v>156.7416385096049</v>
       </c>
       <c r="T31" t="n">
-        <v>193.1208028352485</v>
+        <v>193.1208028352486</v>
       </c>
       <c r="U31" t="n">
-        <v>261.8998268972055</v>
+        <v>261.8998268972051</v>
       </c>
       <c r="V31" t="n">
-        <v>227.8529958317882</v>
+        <v>227.8529958317883</v>
       </c>
       <c r="W31" t="n">
-        <v>262.2383508445512</v>
+        <v>262.2383508445513</v>
       </c>
       <c r="X31" t="n">
         <v>201.4250078969974</v>
       </c>
       <c r="Y31" t="n">
-        <v>194.300005860055</v>
+        <v>194.3000058600551</v>
       </c>
     </row>
     <row r="32">
@@ -3041,7 +3041,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H32" t="n">
         <v>283.1540821444137</v>
@@ -3193,7 +3193,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E34" t="n">
-        <v>122.1493151545294</v>
+        <v>122.1493151545295</v>
       </c>
       <c r="F34" t="n">
         <v>121.1364005308915</v>
@@ -3202,10 +3202,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H34" t="n">
-        <v>116.0100653541841</v>
+        <v>116.0100653541842</v>
       </c>
       <c r="I34" t="n">
-        <v>56.98118882652579</v>
+        <v>56.98118882652582</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,16 +3232,16 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>42.09059921808203</v>
+        <v>42.09059921808198</v>
       </c>
       <c r="S34" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T34" t="n">
-        <v>193.1208028352485</v>
+        <v>193.1208028352486</v>
       </c>
       <c r="U34" t="n">
-        <v>261.8998268972053</v>
+        <v>261.8998268972042</v>
       </c>
       <c r="V34" t="n">
         <v>227.8529958317883</v>
@@ -3266,7 +3266,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710071</v>
       </c>
       <c r="D35" t="n">
         <v>354.683041620683</v>
@@ -3430,7 +3430,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E37" t="n">
-        <v>122.1493151545294</v>
+        <v>122.1493151545295</v>
       </c>
       <c r="F37" t="n">
         <v>121.1364005308915</v>
@@ -3439,10 +3439,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H37" t="n">
-        <v>116.0100653541841</v>
+        <v>116.0100653541842</v>
       </c>
       <c r="I37" t="n">
-        <v>56.98118882652545</v>
+        <v>56.98118882652582</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,13 +3469,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>42.09059921808248</v>
+        <v>42.09059921808203</v>
       </c>
       <c r="S37" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T37" t="n">
-        <v>193.1208028352485</v>
+        <v>193.1208028352486</v>
       </c>
       <c r="U37" t="n">
         <v>261.8998268972048</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3667,7 +3667,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E40" t="n">
-        <v>122.1493151545294</v>
+        <v>122.1493151545295</v>
       </c>
       <c r="F40" t="n">
         <v>121.1364005308915</v>
@@ -3679,7 +3679,7 @@
         <v>116.0100653541842</v>
       </c>
       <c r="I40" t="n">
-        <v>56.98118882652568</v>
+        <v>56.98118882652581</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,13 +3706,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>42.09059921808248</v>
+        <v>42.09059921808195</v>
       </c>
       <c r="S40" t="n">
-        <v>156.7416385096049</v>
+        <v>156.7416385096051</v>
       </c>
       <c r="T40" t="n">
-        <v>193.1208028352485</v>
+        <v>193.1208028352486</v>
       </c>
       <c r="U40" t="n">
         <v>261.8998268972046</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3898,10 +3898,10 @@
         <v>155.5473326898976</v>
       </c>
       <c r="C43" t="n">
-        <v>142.9621736065881</v>
+        <v>142.9621736065882</v>
       </c>
       <c r="D43" t="n">
-        <v>124.3308255261726</v>
+        <v>124.3308255261727</v>
       </c>
       <c r="E43" t="n">
         <v>122.1493151545295</v>
@@ -3910,13 +3910,13 @@
         <v>121.1364005308915</v>
       </c>
       <c r="G43" t="n">
-        <v>141.2394908002291</v>
+        <v>141.2394908002292</v>
       </c>
       <c r="H43" t="n">
         <v>116.0100653541842</v>
       </c>
       <c r="I43" t="n">
-        <v>56.98118882652582</v>
+        <v>56.98118882652575</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>42.09059921808197</v>
+        <v>42.09059921808196</v>
       </c>
       <c r="S43" t="n">
         <v>156.7416385096049</v>
@@ -3952,7 +3952,7 @@
         <v>193.1208028352486</v>
       </c>
       <c r="U43" t="n">
-        <v>261.8998268972046</v>
+        <v>261.8998268972048</v>
       </c>
       <c r="V43" t="n">
         <v>227.8529958317883</v>
@@ -3961,7 +3961,7 @@
         <v>262.2383508445513</v>
       </c>
       <c r="X43" t="n">
-        <v>201.4250078969974</v>
+        <v>201.4250078969975</v>
       </c>
       <c r="Y43" t="n">
         <v>194.3000058600551</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4132,7 +4132,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>155.5473326898975</v>
+        <v>155.5473326898976</v>
       </c>
       <c r="C46" t="n">
         <v>142.9621736065881</v>
@@ -4183,16 +4183,16 @@
         <v>42.09059921808192</v>
       </c>
       <c r="S46" t="n">
-        <v>156.7416385096051</v>
+        <v>156.7416385096049</v>
       </c>
       <c r="T46" t="n">
         <v>193.1208028352485</v>
       </c>
       <c r="U46" t="n">
-        <v>261.8998268972048</v>
+        <v>261.8998268972044</v>
       </c>
       <c r="V46" t="n">
-        <v>227.8529958317882</v>
+        <v>227.8529958317883</v>
       </c>
       <c r="W46" t="n">
         <v>262.2383508445512</v>
@@ -4201,7 +4201,7 @@
         <v>201.4250078969974</v>
       </c>
       <c r="Y46" t="n">
-        <v>194.300005860055</v>
+        <v>194.3000058600551</v>
       </c>
     </row>
   </sheetData>
@@ -4304,19 +4304,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1419.112959385144</v>
+        <v>1904.946176086243</v>
       </c>
       <c r="C2" t="n">
-        <v>1050.150442444732</v>
+        <v>1566.758701099884</v>
       </c>
       <c r="D2" t="n">
-        <v>691.8847438379821</v>
+        <v>1208.493002493134</v>
       </c>
       <c r="E2" t="n">
-        <v>691.8847438379821</v>
+        <v>822.7047498948893</v>
       </c>
       <c r="F2" t="n">
-        <v>407.572275902715</v>
+        <v>822.7047498948893</v>
       </c>
       <c r="G2" t="n">
         <v>407.572275902715</v>
@@ -4325,55 +4325,55 @@
         <v>109.3739563890564</v>
       </c>
       <c r="I2" t="n">
-        <v>65.06298864599685</v>
+        <v>65.06298864599687</v>
       </c>
       <c r="J2" t="n">
-        <v>248.9490509731314</v>
+        <v>248.9490509731313</v>
       </c>
       <c r="K2" t="n">
         <v>575.2851091032919</v>
       </c>
       <c r="L2" t="n">
-        <v>1017.035607679883</v>
+        <v>1017.035607679884</v>
       </c>
       <c r="M2" t="n">
-        <v>1540.237590999098</v>
+        <v>1540.237590999099</v>
       </c>
       <c r="N2" t="n">
-        <v>2076.519337778084</v>
+        <v>2076.519337778085</v>
       </c>
       <c r="O2" t="n">
-        <v>2569.579722854078</v>
+        <v>2569.579722854079</v>
       </c>
       <c r="P2" t="n">
-        <v>2955.894353302312</v>
+        <v>2955.894353302313</v>
       </c>
       <c r="Q2" t="n">
-        <v>3197.827805704724</v>
+        <v>3197.827805704725</v>
       </c>
       <c r="R2" t="n">
-        <v>3253.149432299842</v>
+        <v>3253.149432299843</v>
       </c>
       <c r="S2" t="n">
-        <v>3253.149432299842</v>
+        <v>3253.149432299843</v>
       </c>
       <c r="T2" t="n">
-        <v>3253.149432299842</v>
+        <v>3253.149432299843</v>
       </c>
       <c r="U2" t="n">
-        <v>3253.149432299842</v>
+        <v>2999.614153666706</v>
       </c>
       <c r="V2" t="n">
-        <v>2922.086544956272</v>
+        <v>2668.551266323135</v>
       </c>
       <c r="W2" t="n">
-        <v>2569.317889686157</v>
+        <v>2668.551266323135</v>
       </c>
       <c r="X2" t="n">
-        <v>2195.852131425077</v>
+        <v>2295.085508062055</v>
       </c>
       <c r="Y2" t="n">
-        <v>1805.712799449266</v>
+        <v>1904.946176086243</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.5427451404066</v>
+        <v>1626.917666771056</v>
       </c>
       <c r="C3" t="n">
-        <v>767.0897158592796</v>
+        <v>1452.464637489929</v>
       </c>
       <c r="D3" t="n">
-        <v>618.1553061980285</v>
+        <v>1356.270885607571</v>
       </c>
       <c r="E3" t="n">
-        <v>458.9178511925729</v>
+        <v>1197.033430602115</v>
       </c>
       <c r="F3" t="n">
-        <v>312.383293219458</v>
+        <v>1050.498872629</v>
       </c>
       <c r="G3" t="n">
-        <v>175.9880774678768</v>
+        <v>914.1036568774188</v>
       </c>
       <c r="H3" t="n">
-        <v>85.17601417413351</v>
+        <v>823.2915935836756</v>
       </c>
       <c r="I3" t="n">
-        <v>65.06298864599685</v>
+        <v>803.178568055539</v>
       </c>
       <c r="J3" t="n">
-        <v>155.7664206654049</v>
+        <v>893.8820000749466</v>
       </c>
       <c r="K3" t="n">
-        <v>388.9478577415912</v>
+        <v>1127.063437151133</v>
       </c>
       <c r="L3" t="n">
-        <v>748.8116174223344</v>
+        <v>1486.927196831876</v>
       </c>
       <c r="M3" t="n">
-        <v>1188.112519465049</v>
+        <v>1926.228098874591</v>
       </c>
       <c r="N3" t="n">
-        <v>1653.449054119951</v>
+        <v>2391.564633529493</v>
       </c>
       <c r="O3" t="n">
-        <v>2056.921277259249</v>
+        <v>2795.03685666879</v>
       </c>
       <c r="P3" t="n">
-        <v>2361.410240824785</v>
+        <v>3099.525820234326</v>
       </c>
       <c r="Q3" t="n">
-        <v>2515.033852890302</v>
+        <v>3253.149432299843</v>
       </c>
       <c r="R3" t="n">
-        <v>2515.033852890302</v>
+        <v>3251.011095515483</v>
       </c>
       <c r="S3" t="n">
-        <v>2435.601754487592</v>
+        <v>3120.97667611824</v>
       </c>
       <c r="T3" t="n">
-        <v>2242.829305823872</v>
+        <v>2928.20422745452</v>
       </c>
       <c r="U3" t="n">
-        <v>2014.759346090906</v>
+        <v>2700.134267721555</v>
       </c>
       <c r="V3" t="n">
-        <v>1779.607237859163</v>
+        <v>2464.982159489813</v>
       </c>
       <c r="W3" t="n">
-        <v>1525.369881130961</v>
+        <v>2210.744802761611</v>
       </c>
       <c r="X3" t="n">
-        <v>1317.518380925429</v>
+        <v>2002.893302556078</v>
       </c>
       <c r="Y3" t="n">
-        <v>1109.758082160475</v>
+        <v>1795.133003791124</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>711.6284898227395</v>
+        <v>3114.447092123409</v>
       </c>
       <c r="C4" t="n">
-        <v>542.6923068948327</v>
+        <v>3114.447092123409</v>
       </c>
       <c r="D4" t="n">
-        <v>392.5756674824969</v>
+        <v>2964.330452711074</v>
       </c>
       <c r="E4" t="n">
-        <v>244.6625739001038</v>
+        <v>2816.41735912868</v>
       </c>
       <c r="F4" t="n">
-        <v>97.7726264021934</v>
+        <v>2669.52741163077</v>
       </c>
       <c r="G4" t="n">
-        <v>65.06298864599685</v>
+        <v>2669.52741163077</v>
       </c>
       <c r="H4" t="n">
-        <v>65.06298864599685</v>
+        <v>2523.070840438016</v>
       </c>
       <c r="I4" t="n">
-        <v>65.06298864599685</v>
+        <v>2424.93546629286</v>
       </c>
       <c r="J4" t="n">
-        <v>75.02005212274275</v>
+        <v>2434.892529769606</v>
       </c>
       <c r="K4" t="n">
-        <v>170.2650045033534</v>
+        <v>2530.137482150217</v>
       </c>
       <c r="L4" t="n">
-        <v>322.0515495633496</v>
+        <v>2681.924027210213</v>
       </c>
       <c r="M4" t="n">
-        <v>485.347462299279</v>
+        <v>2845.219939946143</v>
       </c>
       <c r="N4" t="n">
-        <v>652.6180891206072</v>
+        <v>3012.490566767471</v>
       </c>
       <c r="O4" t="n">
-        <v>786.8064976079672</v>
+        <v>3146.678975254831</v>
       </c>
       <c r="P4" t="n">
-        <v>882.5658916983282</v>
+        <v>3242.438369345192</v>
       </c>
       <c r="Q4" t="n">
-        <v>893.2769546529793</v>
+        <v>3253.149432299843</v>
       </c>
       <c r="R4" t="n">
-        <v>893.2769546529793</v>
+        <v>3162.108345921494</v>
       </c>
       <c r="S4" t="n">
-        <v>893.2769546529793</v>
+        <v>3162.108345921494</v>
       </c>
       <c r="T4" t="n">
-        <v>893.2769546529793</v>
+        <v>3162.108345921494</v>
       </c>
       <c r="U4" t="n">
-        <v>893.2769546529793</v>
+        <v>3162.108345921494</v>
       </c>
       <c r="V4" t="n">
-        <v>893.2769546529793</v>
+        <v>3162.108345921494</v>
       </c>
       <c r="W4" t="n">
-        <v>893.2769546529793</v>
+        <v>3162.108345921494</v>
       </c>
       <c r="X4" t="n">
-        <v>893.2769546529793</v>
+        <v>3162.108345921494</v>
       </c>
       <c r="Y4" t="n">
-        <v>893.2769546529793</v>
+        <v>3162.108345921494</v>
       </c>
     </row>
     <row r="5">
@@ -4541,40 +4541,40 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1295.236214140705</v>
+        <v>1278.358723975039</v>
       </c>
       <c r="C5" t="n">
-        <v>1295.236214140705</v>
+        <v>1278.358723975039</v>
       </c>
       <c r="D5" t="n">
-        <v>936.9705155339545</v>
+        <v>1278.358723975039</v>
       </c>
       <c r="E5" t="n">
-        <v>551.1822629357102</v>
+        <v>892.5704713767946</v>
       </c>
       <c r="F5" t="n">
         <v>481.5845665871869</v>
       </c>
       <c r="G5" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H5" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I5" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810555</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L5" t="n">
         <v>1040.244834329464</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N5" t="n">
         <v>2120.555556060171</v>
@@ -4589,13 +4589,13 @@
         <v>3266.588755052368</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S5" t="n">
-        <v>3215.315153136265</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T5" t="n">
-        <v>3009.337405520487</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U5" t="n">
         <v>2755.806928794324</v>
@@ -4604,13 +4604,13 @@
         <v>2424.744041450753</v>
       </c>
       <c r="W5" t="n">
-        <v>2071.975386180638</v>
+        <v>2071.975386180639</v>
       </c>
       <c r="X5" t="n">
-        <v>2071.975386180638</v>
+        <v>1698.509627919559</v>
       </c>
       <c r="Y5" t="n">
-        <v>1681.836054204827</v>
+        <v>1308.370295943747</v>
       </c>
     </row>
     <row r="6">
@@ -4620,46 +4620,46 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D6" t="n">
-        <v>618.1564155387305</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064547</v>
       </c>
       <c r="I6" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228007</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158135</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N6" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P6" t="n">
         <v>2407.411984886741</v>
@@ -4699,34 +4699,34 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>629.1078027362229</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="C7" t="n">
-        <v>460.171619808316</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="D7" t="n">
-        <v>310.0549803959802</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="E7" t="n">
-        <v>310.0549803959802</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="F7" t="n">
-        <v>310.0549803959802</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G7" t="n">
-        <v>310.0549803959802</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H7" t="n">
-        <v>163.837793613838</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I7" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J7" t="n">
-        <v>78.33486996962286</v>
+        <v>78.33486996962287</v>
       </c>
       <c r="K7" t="n">
-        <v>176.6457242372932</v>
+        <v>176.6457242372933</v>
       </c>
       <c r="L7" t="n">
         <v>332.3555681596505</v>
@@ -4756,19 +4756,19 @@
         <v>920.8870058181849</v>
       </c>
       <c r="U7" t="n">
-        <v>883.7922909421097</v>
+        <v>631.7841389438285</v>
       </c>
       <c r="V7" t="n">
-        <v>629.1078027362229</v>
+        <v>377.0996507379416</v>
       </c>
       <c r="W7" t="n">
-        <v>629.1078027362229</v>
+        <v>87.68248070098099</v>
       </c>
       <c r="X7" t="n">
-        <v>629.1078027362229</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="Y7" t="n">
-        <v>629.1078027362229</v>
+        <v>66.51211643218342</v>
       </c>
     </row>
     <row r="8">
@@ -4778,22 +4778,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1917.382287315189</v>
+        <v>1959.241091287691</v>
       </c>
       <c r="C8" t="n">
-        <v>1548.419770374778</v>
+        <v>1590.27857434728</v>
       </c>
       <c r="D8" t="n">
-        <v>1190.154071768027</v>
+        <v>1232.012875740529</v>
       </c>
       <c r="E8" t="n">
-        <v>1190.154071768027</v>
+        <v>846.2246231422851</v>
       </c>
       <c r="F8" t="n">
-        <v>779.1681669784198</v>
+        <v>435.2387183526775</v>
       </c>
       <c r="G8" t="n">
-        <v>364.0957168234162</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H8" t="n">
         <v>66.51211643218342</v>
@@ -4802,10 +4802,10 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L8" t="n">
         <v>1040.244834329464</v>
@@ -4829,25 +4829,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S8" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T8" t="n">
-        <v>3009.337405520488</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U8" t="n">
-        <v>2755.806928794324</v>
+        <v>3072.075344883007</v>
       </c>
       <c r="V8" t="n">
-        <v>2755.806928794324</v>
+        <v>3072.075344883007</v>
       </c>
       <c r="W8" t="n">
-        <v>2403.03827352421</v>
+        <v>2719.306689612893</v>
       </c>
       <c r="X8" t="n">
-        <v>2029.57251526313</v>
+        <v>2345.840931351813</v>
       </c>
       <c r="Y8" t="n">
-        <v>1917.382287315189</v>
+        <v>2345.840931351813</v>
       </c>
     </row>
     <row r="9">
@@ -4857,40 +4857,40 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811086</v>
+        <v>941.5438544811091</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999816</v>
+        <v>767.0908251999821</v>
       </c>
       <c r="D9" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387309</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332754</v>
       </c>
       <c r="F9" t="n">
-        <v>312.38440256016</v>
+        <v>312.3844025601604</v>
       </c>
       <c r="G9" t="n">
         <v>176.0213023927784</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064547</v>
       </c>
       <c r="I9" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J9" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228006</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158135</v>
+        <v>765.1517452158137</v>
       </c>
       <c r="M9" t="n">
-        <v>1212.428070438129</v>
+        <v>1212.42807043813</v>
       </c>
       <c r="N9" t="n">
         <v>1685.951113992584</v>
@@ -4902,7 +4902,7 @@
         <v>2407.411984886742</v>
       </c>
       <c r="Q9" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R9" t="n">
         <v>2564.909189125857</v>
@@ -4911,16 +4911,16 @@
         <v>2435.471302619337</v>
       </c>
       <c r="T9" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U9" t="n">
         <v>2014.760455431608</v>
       </c>
       <c r="V9" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W9" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X9" t="n">
         <v>1317.519490266131</v>
@@ -4936,25 +4936,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>625.6709106036544</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="C10" t="n">
-        <v>625.6709106036544</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="D10" t="n">
-        <v>625.6709106036544</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="E10" t="n">
-        <v>477.7578170212613</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="F10" t="n">
-        <v>477.7578170212613</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G10" t="n">
-        <v>310.0549803959803</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H10" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I10" t="n">
         <v>66.51211643218342</v>
@@ -4990,22 +4990,22 @@
         <v>920.8870058181849</v>
       </c>
       <c r="T10" t="n">
-        <v>920.8870058181849</v>
+        <v>699.1203903877109</v>
       </c>
       <c r="U10" t="n">
-        <v>920.8870058181849</v>
+        <v>410.0175235133545</v>
       </c>
       <c r="V10" t="n">
-        <v>920.8870058181849</v>
+        <v>155.3330353074676</v>
       </c>
       <c r="W10" t="n">
-        <v>920.8870058181849</v>
+        <v>155.3330353074676</v>
       </c>
       <c r="X10" t="n">
-        <v>692.8974549201675</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="Y10" t="n">
-        <v>625.6709106036544</v>
+        <v>66.51211643218342</v>
       </c>
     </row>
     <row r="11">
@@ -5015,25 +5015,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551877</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611466</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004715</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406471</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168634</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362708</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797189</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I11" t="n">
         <v>95.34095638192593</v>
@@ -5042,7 +5042,7 @@
         <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332387</v>
@@ -5051,40 +5051,40 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591811</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615999</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="12">
@@ -5103,7 +5103,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5112,31 +5112,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K12" t="n">
-        <v>577.3880777468473</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L12" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M12" t="n">
-        <v>1268.578514636217</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N12" t="n">
-        <v>1896.176478190824</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O12" t="n">
-        <v>1896.176478190824</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P12" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q12" t="n">
         <v>2553.061288060775</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1098.667160263526</v>
+        <v>513.8536007400708</v>
       </c>
       <c r="C13" t="n">
-        <v>929.7309773356194</v>
+        <v>344.9174178121639</v>
       </c>
       <c r="D13" t="n">
-        <v>779.6143379232836</v>
+        <v>344.9174178121639</v>
       </c>
       <c r="E13" t="n">
-        <v>631.7012443408905</v>
+        <v>344.9174178121639</v>
       </c>
       <c r="F13" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121639</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578601</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797742</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V13" t="n">
-        <v>1688.385853854707</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W13" t="n">
-        <v>1688.385853854707</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X13" t="n">
-        <v>1460.39630295669</v>
+        <v>916.2946447138406</v>
       </c>
       <c r="Y13" t="n">
-        <v>1280.315625093766</v>
+        <v>695.5020655703105</v>
       </c>
     </row>
     <row r="14">
@@ -5261,22 +5261,22 @@
         <v>1590.547811004715</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168628</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362702</v>
       </c>
       <c r="H14" t="n">
         <v>93.81666304797189</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192611</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K14" t="n">
         <v>852.8523611075809</v>
@@ -5291,13 +5291,13 @@
         <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R14" t="n">
         <v>4690.833152398594</v>
@@ -5318,7 +5318,7 @@
         <v>3467.98095685289</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.51519859181</v>
+        <v>3094.515198591811</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615999</v>
@@ -5352,28 +5352,28 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273908</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K15" t="n">
-        <v>577.3880777468473</v>
+        <v>579.1554649516145</v>
       </c>
       <c r="L15" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M15" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N15" t="n">
-        <v>1670.092171589158</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O15" t="n">
-        <v>1896.176478190824</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P15" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
         <v>2553.061288060775</v>
@@ -5410,37 +5410,37 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>513.8536007400721</v>
+        <v>849.38435762632</v>
       </c>
       <c r="C16" t="n">
-        <v>344.9174178121651</v>
+        <v>680.4481746984131</v>
       </c>
       <c r="D16" t="n">
-        <v>344.9174178121651</v>
+        <v>530.3315352860774</v>
       </c>
       <c r="E16" t="n">
-        <v>344.9174178121651</v>
+        <v>382.4184417036843</v>
       </c>
       <c r="F16" t="n">
-        <v>344.9174178121651</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797189</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782955</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038344</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797746</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
@@ -5455,31 +5455,31 @@
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487568</v>
+        <v>2311.800723230285</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510509</v>
+        <v>2092.199258253227</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854707</v>
+        <v>1803.124031597425</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.70136564882</v>
+        <v>1548.439543391538</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.284195611859</v>
+        <v>1259.022373354577</v>
       </c>
       <c r="X16" t="n">
-        <v>916.294644713842</v>
+        <v>1031.03282245656</v>
       </c>
       <c r="Y16" t="n">
-        <v>695.5020655703119</v>
+        <v>1031.03282245656</v>
       </c>
     </row>
     <row r="17">
@@ -5492,7 +5492,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
         <v>1590.547811004713</v>
@@ -5504,58 +5504,58 @@
         <v>793.7736536168613</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192605</v>
+        <v>95.34095638192603</v>
       </c>
       <c r="J17" t="n">
         <v>378.1925803111718</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075799</v>
+        <v>852.852361107579</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332385</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5577,7 +5577,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5586,25 +5586,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797189</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K18" t="n">
-        <v>175.8744207939063</v>
+        <v>579.1554649516145</v>
       </c>
       <c r="L18" t="n">
-        <v>671.2000270096652</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>1268.578514636217</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="N18" t="n">
-        <v>1896.176478190824</v>
+        <v>1344.266747951537</v>
       </c>
       <c r="O18" t="n">
         <v>1896.176478190824</v>
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1016.58045691144</v>
+        <v>702.4944101284098</v>
       </c>
       <c r="C19" t="n">
-        <v>847.6442739835331</v>
+        <v>533.5582272005028</v>
       </c>
       <c r="D19" t="n">
-        <v>697.5276345711974</v>
+        <v>383.441587788167</v>
       </c>
       <c r="E19" t="n">
-        <v>549.6145409888043</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="F19" t="n">
-        <v>402.7245934908939</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G19" t="n">
         <v>235.5284942057738</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038344</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797742</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2264.108249235165</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T19" t="n">
-        <v>2044.506784258106</v>
+        <v>2166.101889898847</v>
       </c>
       <c r="U19" t="n">
-        <v>1936.428221820188</v>
+        <v>1877.026663243045</v>
       </c>
       <c r="V19" t="n">
-        <v>1936.428221820188</v>
+        <v>1622.342175037158</v>
       </c>
       <c r="W19" t="n">
-        <v>1647.011051783227</v>
+        <v>1332.925005000197</v>
       </c>
       <c r="X19" t="n">
-        <v>1419.02150088521</v>
+        <v>1104.93545410218</v>
       </c>
       <c r="Y19" t="n">
-        <v>1198.22892174168</v>
+        <v>884.1428749586495</v>
       </c>
     </row>
     <row r="20">
@@ -5732,10 +5732,10 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
         <v>793.7736536168611</v>
@@ -5826,28 +5826,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L21" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>1072.713683962606</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N21" t="n">
-        <v>1344.266747951538</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="O21" t="n">
-        <v>1896.176478190825</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P21" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
         <v>2553.061288060775</v>
@@ -5884,34 +5884,34 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>727.9786782557277</v>
+        <v>513.85360074007</v>
       </c>
       <c r="C22" t="n">
-        <v>559.0424953278208</v>
+        <v>344.9174178121631</v>
       </c>
       <c r="D22" t="n">
-        <v>408.925855915485</v>
+        <v>344.9174178121631</v>
       </c>
       <c r="E22" t="n">
-        <v>261.0127623330919</v>
+        <v>343.0994656851785</v>
       </c>
       <c r="F22" t="n">
-        <v>261.0127623330919</v>
+        <v>343.0994656851785</v>
       </c>
       <c r="G22" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000584</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000584</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782956</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038341</v>
       </c>
       <c r="L22" t="n">
         <v>826.1405381797742</v>
@@ -5926,7 +5926,7 @@
         <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q22" t="n">
         <v>2446.96308358026</v>
@@ -5935,25 +5935,25 @@
         <v>2379.917379832662</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487566</v>
       </c>
       <c r="T22" t="n">
-        <v>2191.586158026164</v>
+        <v>1977.461080510507</v>
       </c>
       <c r="U22" t="n">
-        <v>1902.510931370363</v>
+        <v>1688.385853854705</v>
       </c>
       <c r="V22" t="n">
-        <v>1647.826443164476</v>
+        <v>1433.701365648818</v>
       </c>
       <c r="W22" t="n">
-        <v>1358.409273127515</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>1130.419722229498</v>
+        <v>916.2946447138402</v>
       </c>
       <c r="Y22" t="n">
-        <v>909.6271430859674</v>
+        <v>695.5020655703097</v>
       </c>
     </row>
     <row r="23">
@@ -6023,13 +6023,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6066,25 +6066,25 @@
         <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>95.58405025273903</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>95.58405025273903</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
-        <v>590.9096564684977</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>716.6687843969308</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>1344.266747951538</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O24" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
         <v>2553.061288060775</v>
@@ -6121,22 +6121,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>916.2946447138405</v>
+        <v>580.0655846733346</v>
       </c>
       <c r="C25" t="n">
-        <v>747.3584617859336</v>
+        <v>411.1294017454276</v>
       </c>
       <c r="D25" t="n">
-        <v>597.2418223735979</v>
+        <v>261.0127623330918</v>
       </c>
       <c r="E25" t="n">
-        <v>449.3287287912048</v>
+        <v>261.0127623330918</v>
       </c>
       <c r="F25" t="n">
-        <v>302.4387812932944</v>
+        <v>261.0127623330917</v>
       </c>
       <c r="G25" t="n">
-        <v>235.5284942057732</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H25" t="n">
         <v>93.81666304797189</v>
@@ -6148,10 +6148,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038341</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797742</v>
+        <v>826.1405381797741</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
@@ -6163,7 +6163,7 @@
         <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q25" t="n">
         <v>2446.96308358026</v>
@@ -6172,25 +6172,25 @@
         <v>2379.917379832662</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487567</v>
+        <v>2263.274529420831</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510508</v>
+        <v>2043.673064443772</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854706</v>
+        <v>1754.59783778797</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.701365648819</v>
+        <v>1499.913349582082</v>
       </c>
       <c r="W25" t="n">
-        <v>1144.284195611858</v>
+        <v>1210.496179545122</v>
       </c>
       <c r="X25" t="n">
-        <v>916.2946447138405</v>
+        <v>982.5066286471044</v>
       </c>
       <c r="Y25" t="n">
-        <v>916.2946447138405</v>
+        <v>761.7140495035743</v>
       </c>
     </row>
     <row r="26">
@@ -6206,13 +6206,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G26" t="n">
         <v>379.8308874362686</v>
@@ -6221,13 +6221,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111712</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
@@ -6300,31 +6300,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>691.1951506745238</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>1318.79311422913</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O27" t="n">
-        <v>1870.702844468417</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>2294.325993963485</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
-        <v>2527.587654338368</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,37 +6358,37 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>926.9575315319321</v>
+        <v>926.9575315319316</v>
       </c>
       <c r="C28" t="n">
-        <v>782.5512955656815</v>
+        <v>782.551295565681</v>
       </c>
       <c r="D28" t="n">
-        <v>656.9646031150021</v>
+        <v>656.9646031150016</v>
       </c>
       <c r="E28" t="n">
-        <v>533.5814564942654</v>
+        <v>533.5814564942649</v>
       </c>
       <c r="F28" t="n">
-        <v>411.2214559580113</v>
+        <v>411.2214559580109</v>
       </c>
       <c r="G28" t="n">
-        <v>268.5553036345476</v>
+        <v>268.5553036345473</v>
       </c>
       <c r="H28" t="n">
-        <v>151.373419438402</v>
+        <v>151.3734194384017</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797189</v>
       </c>
       <c r="J28" t="n">
-        <v>198.094482495415</v>
+        <v>198.0944824954151</v>
       </c>
       <c r="K28" t="n">
         <v>483.825546038073</v>
       </c>
       <c r="L28" t="n">
-        <v>898.2659412311325</v>
+        <v>898.2659412311324</v>
       </c>
       <c r="M28" t="n">
         <v>1344.317444979286</v>
@@ -6397,7 +6397,7 @@
         <v>1785.769117656414</v>
       </c>
       <c r="O28" t="n">
-        <v>2179.340199382519</v>
+        <v>2179.340199382518</v>
       </c>
       <c r="P28" t="n">
         <v>2496.057455973196</v>
@@ -6415,19 +6415,19 @@
         <v>2243.385329532432</v>
       </c>
       <c r="U28" t="n">
-        <v>1978.840049838286</v>
+        <v>1978.840049838285</v>
       </c>
       <c r="V28" t="n">
-        <v>1748.685508594056</v>
+        <v>1748.685508594054</v>
       </c>
       <c r="W28" t="n">
-        <v>1483.798285518751</v>
+        <v>1483.79828551875</v>
       </c>
       <c r="X28" t="n">
         <v>1280.338681582389</v>
       </c>
       <c r="Y28" t="n">
-        <v>1084.076049400516</v>
+        <v>1084.076049400515</v>
       </c>
     </row>
     <row r="29">
@@ -6443,10 +6443,10 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F29" t="n">
         <v>793.7736536168611</v>
@@ -6461,19 +6461,19 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O29" t="n">
         <v>3640.42229106801</v>
@@ -6537,31 +6537,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O30" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,19 +6595,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>926.9575315319319</v>
+        <v>926.9575315319324</v>
       </c>
       <c r="C31" t="n">
-        <v>782.5512955656812</v>
+        <v>782.5512955656818</v>
       </c>
       <c r="D31" t="n">
-        <v>656.9646031150019</v>
+        <v>656.9646031150023</v>
       </c>
       <c r="E31" t="n">
-        <v>533.581456494265</v>
+        <v>533.5814564942655</v>
       </c>
       <c r="F31" t="n">
-        <v>411.221455958011</v>
+        <v>411.2214559580113</v>
       </c>
       <c r="G31" t="n">
         <v>268.5553036345476</v>
@@ -6616,16 +6616,16 @@
         <v>151.373419438402</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J31" t="n">
-        <v>198.0944824954149</v>
+        <v>198.094482495415</v>
       </c>
       <c r="K31" t="n">
-        <v>483.8255460380728</v>
+        <v>483.825546038073</v>
       </c>
       <c r="L31" t="n">
-        <v>898.2659412311323</v>
+        <v>898.2659412311324</v>
       </c>
       <c r="M31" t="n">
         <v>1344.317444979286</v>
@@ -6634,10 +6634,10 @@
         <v>1785.769117656414</v>
       </c>
       <c r="O31" t="n">
-        <v>2179.340199382518</v>
+        <v>2179.340199382519</v>
       </c>
       <c r="P31" t="n">
-        <v>2496.057455973196</v>
+        <v>2496.057455973197</v>
       </c>
       <c r="Q31" t="n">
         <v>2639.297491717215</v>
@@ -6655,16 +6655,16 @@
         <v>1978.840049838285</v>
       </c>
       <c r="V31" t="n">
-        <v>1748.685508594054</v>
+        <v>1748.685508594055</v>
       </c>
       <c r="W31" t="n">
-        <v>1483.79828551875</v>
+        <v>1483.798285518751</v>
       </c>
       <c r="X31" t="n">
-        <v>1280.338681582389</v>
+        <v>1280.33868158239</v>
       </c>
       <c r="Y31" t="n">
-        <v>1084.076049400515</v>
+        <v>1084.076049400516</v>
       </c>
     </row>
     <row r="32">
@@ -6680,13 +6680,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G32" t="n">
         <v>379.8308874362686</v>
@@ -6695,25 +6695,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
@@ -6780,22 +6780,22 @@
         <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>245.2306927803937</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>245.2306927803937</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>842.6091804069456</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>1470.207143961552</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
-        <v>2022.116874200839</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2445.740023695907</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
         <v>2553.061288060775</v>
@@ -6832,19 +6832,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>926.957531531932</v>
+        <v>926.9575315319324</v>
       </c>
       <c r="C34" t="n">
-        <v>782.5512955656814</v>
+        <v>782.5512955656818</v>
       </c>
       <c r="D34" t="n">
-        <v>656.964603115002</v>
+        <v>656.9646031150023</v>
       </c>
       <c r="E34" t="n">
-        <v>533.5814564942651</v>
+        <v>533.5814564942655</v>
       </c>
       <c r="F34" t="n">
-        <v>411.2214559580111</v>
+        <v>411.2214559580114</v>
       </c>
       <c r="G34" t="n">
         <v>268.5553036345476</v>
@@ -6856,13 +6856,13 @@
         <v>93.81666304797189</v>
       </c>
       <c r="J34" t="n">
-        <v>198.094482495415</v>
+        <v>198.0944824954149</v>
       </c>
       <c r="K34" t="n">
-        <v>483.825546038073</v>
+        <v>483.8255460380728</v>
       </c>
       <c r="L34" t="n">
-        <v>898.2659412311325</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M34" t="n">
         <v>1344.317444979286</v>
@@ -6877,31 +6877,31 @@
         <v>2496.057455973196</v>
       </c>
       <c r="Q34" t="n">
-        <v>2639.297491717215</v>
+        <v>2639.297491717214</v>
       </c>
       <c r="R34" t="n">
-        <v>2596.781734931274</v>
+        <v>2596.781734931273</v>
       </c>
       <c r="S34" t="n">
-        <v>2438.456847547835</v>
+        <v>2438.456847547834</v>
       </c>
       <c r="T34" t="n">
-        <v>2243.385329532432</v>
+        <v>2243.385329532431</v>
       </c>
       <c r="U34" t="n">
         <v>1978.840049838285</v>
       </c>
       <c r="V34" t="n">
-        <v>1748.685508594054</v>
+        <v>1748.685508594055</v>
       </c>
       <c r="W34" t="n">
-        <v>1483.79828551875</v>
+        <v>1483.798285518751</v>
       </c>
       <c r="X34" t="n">
-        <v>1280.338681582389</v>
+        <v>1280.33868158239</v>
       </c>
       <c r="Y34" t="n">
-        <v>1084.076049400515</v>
+        <v>1084.076049400516</v>
       </c>
     </row>
     <row r="35">
@@ -6911,19 +6911,19 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
         <v>379.8308874362686</v>
@@ -6932,13 +6932,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
@@ -6950,7 +6950,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
@@ -6968,19 +6968,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="36">
@@ -7069,25 +7069,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>926.957531531932</v>
+        <v>926.9575315319322</v>
       </c>
       <c r="C37" t="n">
-        <v>782.5512955656814</v>
+        <v>782.5512955656816</v>
       </c>
       <c r="D37" t="n">
-        <v>656.9646031150019</v>
+        <v>656.9646031150021</v>
       </c>
       <c r="E37" t="n">
-        <v>533.581456494265</v>
+        <v>533.5814564942652</v>
       </c>
       <c r="F37" t="n">
-        <v>411.2214559580109</v>
+        <v>411.2214559580111</v>
       </c>
       <c r="G37" t="n">
-        <v>268.5553036345473</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H37" t="n">
-        <v>151.3734194384016</v>
+        <v>151.373419438402</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797189</v>
@@ -7096,13 +7096,13 @@
         <v>198.094482495415</v>
       </c>
       <c r="K37" t="n">
-        <v>483.8255460380729</v>
+        <v>483.8255460380728</v>
       </c>
       <c r="L37" t="n">
-        <v>898.2659412311325</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M37" t="n">
-        <v>1344.317444979287</v>
+        <v>1344.317444979286</v>
       </c>
       <c r="N37" t="n">
         <v>1785.769117656414</v>
@@ -7117,28 +7117,28 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R37" t="n">
-        <v>2596.781734931273</v>
+        <v>2596.781734931274</v>
       </c>
       <c r="S37" t="n">
-        <v>2438.456847547834</v>
+        <v>2438.456847547835</v>
       </c>
       <c r="T37" t="n">
         <v>2243.385329532432</v>
       </c>
       <c r="U37" t="n">
-        <v>1978.840049838285</v>
+        <v>1978.840049838286</v>
       </c>
       <c r="V37" t="n">
-        <v>1748.685508594054</v>
+        <v>1748.685508594055</v>
       </c>
       <c r="W37" t="n">
-        <v>1483.79828551875</v>
+        <v>1483.798285518751</v>
       </c>
       <c r="X37" t="n">
         <v>1280.338681582389</v>
       </c>
       <c r="Y37" t="n">
-        <v>1084.076049400515</v>
+        <v>1084.076049400516</v>
       </c>
     </row>
     <row r="38">
@@ -7148,19 +7148,19 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G38" t="n">
         <v>379.8308874362686</v>
@@ -7169,13 +7169,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7184,10 +7184,10 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
@@ -7205,19 +7205,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="39">
@@ -7248,28 +7248,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J39" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K39" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L39" t="n">
         <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>1074.481071167373</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>1344.266747951538</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
         <v>2553.061288060775</v>
@@ -7318,25 +7318,25 @@
         <v>533.5814564942652</v>
       </c>
       <c r="F40" t="n">
-        <v>411.2214559580112</v>
+        <v>411.2214559580111</v>
       </c>
       <c r="G40" t="n">
-        <v>268.5553036345475</v>
+        <v>268.5553036345473</v>
       </c>
       <c r="H40" t="n">
-        <v>151.3734194384019</v>
+        <v>151.373419438402</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797189</v>
       </c>
       <c r="J40" t="n">
-        <v>198.0944824954149</v>
+        <v>198.094482495415</v>
       </c>
       <c r="K40" t="n">
-        <v>483.8255460380728</v>
+        <v>483.825546038073</v>
       </c>
       <c r="L40" t="n">
-        <v>898.2659412311323</v>
+        <v>898.2659412311325</v>
       </c>
       <c r="M40" t="n">
         <v>1344.317444979286</v>
@@ -7354,7 +7354,7 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R40" t="n">
-        <v>2596.781734931273</v>
+        <v>2596.781734931274</v>
       </c>
       <c r="S40" t="n">
         <v>2438.456847547834</v>
@@ -7369,7 +7369,7 @@
         <v>1748.685508594055</v>
       </c>
       <c r="W40" t="n">
-        <v>1483.79828551875</v>
+        <v>1483.798285518751</v>
       </c>
       <c r="X40" t="n">
         <v>1280.338681582389</v>
@@ -7385,19 +7385,19 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G41" t="n">
         <v>379.8308874362686</v>
@@ -7406,25 +7406,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192451</v>
       </c>
       <c r="J41" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7442,19 +7442,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="42">
@@ -7485,13 +7485,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J42" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K42" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L42" t="n">
         <v>1074.481071167373</v>
@@ -7543,37 +7543,37 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>926.9575315319321</v>
+        <v>926.9575315319323</v>
       </c>
       <c r="C43" t="n">
-        <v>782.5512955656815</v>
+        <v>782.5512955656816</v>
       </c>
       <c r="D43" t="n">
-        <v>656.964603115002</v>
+        <v>656.9646031150021</v>
       </c>
       <c r="E43" t="n">
-        <v>533.5814564942651</v>
+        <v>533.5814564942652</v>
       </c>
       <c r="F43" t="n">
-        <v>411.221455958011</v>
+        <v>411.2214559580111</v>
       </c>
       <c r="G43" t="n">
-        <v>268.5553036345477</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H43" t="n">
-        <v>151.373419438402</v>
+        <v>151.3734194384019</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
         <v>198.094482495415</v>
       </c>
       <c r="K43" t="n">
-        <v>483.8255460380729</v>
+        <v>483.8255460380728</v>
       </c>
       <c r="L43" t="n">
-        <v>898.2659412311323</v>
+        <v>898.2659412311324</v>
       </c>
       <c r="M43" t="n">
         <v>1344.317444979286</v>
@@ -7591,16 +7591,16 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R43" t="n">
-        <v>2596.781734931273</v>
+        <v>2596.781734931274</v>
       </c>
       <c r="S43" t="n">
-        <v>2438.456847547834</v>
+        <v>2438.456847547835</v>
       </c>
       <c r="T43" t="n">
         <v>2243.385329532432</v>
       </c>
       <c r="U43" t="n">
-        <v>1978.840049838285</v>
+        <v>1978.840049838286</v>
       </c>
       <c r="V43" t="n">
         <v>1748.685508594055</v>
@@ -7609,7 +7609,7 @@
         <v>1483.798285518751</v>
       </c>
       <c r="X43" t="n">
-        <v>1280.338681582389</v>
+        <v>1280.33868158239</v>
       </c>
       <c r="Y43" t="n">
         <v>1084.076049400516</v>
@@ -7622,19 +7622,19 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G44" t="n">
         <v>379.8308874362686</v>
@@ -7643,13 +7643,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
@@ -7658,10 +7658,10 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7679,19 +7679,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="45">
@@ -7722,31 +7722,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J45" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K45" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L45" t="n">
         <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>1671.859558793925</v>
+        <v>1231.938859683104</v>
       </c>
       <c r="N45" t="n">
-        <v>2129.438138565707</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O45" t="n">
-        <v>2129.438138565707</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P45" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q45" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,13 +7780,13 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>926.9575315319321</v>
+        <v>926.9575315319322</v>
       </c>
       <c r="C46" t="n">
-        <v>782.5512955656815</v>
+        <v>782.5512955656816</v>
       </c>
       <c r="D46" t="n">
-        <v>656.9646031150021</v>
+        <v>656.9646031150022</v>
       </c>
       <c r="E46" t="n">
         <v>533.5814564942654</v>
@@ -7801,10 +7801,10 @@
         <v>151.373419438402</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>198.0944824954151</v>
+        <v>198.094482495415</v>
       </c>
       <c r="K46" t="n">
         <v>483.825546038073</v>
@@ -7819,16 +7819,16 @@
         <v>1785.769117656414</v>
       </c>
       <c r="O46" t="n">
-        <v>2179.340199382518</v>
+        <v>2179.340199382519</v>
       </c>
       <c r="P46" t="n">
-        <v>2496.057455973196</v>
+        <v>2496.057455973197</v>
       </c>
       <c r="Q46" t="n">
-        <v>2639.297491717215</v>
+        <v>2639.297491717216</v>
       </c>
       <c r="R46" t="n">
-        <v>2596.781734931274</v>
+        <v>2596.781734931273</v>
       </c>
       <c r="S46" t="n">
         <v>2438.456847547834</v>
@@ -7837,16 +7837,16 @@
         <v>2243.385329532432</v>
       </c>
       <c r="U46" t="n">
-        <v>1978.840049838285</v>
+        <v>1978.840049838286</v>
       </c>
       <c r="V46" t="n">
         <v>1748.685508594055</v>
       </c>
       <c r="W46" t="n">
-        <v>1483.79828551875</v>
+        <v>1483.798285518751</v>
       </c>
       <c r="X46" t="n">
-        <v>1280.338681582389</v>
+        <v>1280.33868158239</v>
       </c>
       <c r="Y46" t="n">
         <v>1084.076049400516</v>
@@ -22544,22 +22544,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>30.46729153451184</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>125.406702485797</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>410.9811492522526</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -22601,13 +22601,13 @@
         <v>204.1780969433633</v>
       </c>
       <c r="U2" t="n">
-        <v>250.9999258468059</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -22629,7 +22629,7 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>52.21325120110399</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
@@ -22671,10 +22671,10 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>2.116953416516708</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>50.09629778458754</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
@@ -22702,10 +22702,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>132.6473389218332</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -22717,13 +22717,13 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>133.669922261085</v>
+        <v>166.0524636397191</v>
       </c>
       <c r="H4" t="n">
-        <v>144.9920054808265</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>97.15402040370427</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -22750,7 +22750,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>90.13067551456429</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>190.2335559203903</v>
@@ -23321,7 +23321,7 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>1.70530256582424e-12</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -23419,22 +23419,22 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>57.22910392194215</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23473,16 +23473,16 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>40.30478226780053</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23656,22 +23656,22 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>138.494940240507</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,10 +23698,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>47.21554925516907</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23719,7 +23719,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -23899,16 +23899,16 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922689</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.2658363185655</v>
+        <v>81.26583631856556</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,19 +23935,19 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012164</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>5.728115292810156</v>
       </c>
       <c r="U19" t="n">
-        <v>179.186697575705</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -24130,10 +24130,10 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>144.6341900408545</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
@@ -24145,7 +24145,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856556</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24178,7 +24178,7 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>211.9838267405001</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24361,7 +24361,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -24370,19 +24370,19 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>99.28295407562291</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.294712846224</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856556</v>
+        <v>81.26583631856562</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24412,7 +24412,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>65.54986409393247</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24430,7 +24430,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24664,7 +24664,7 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>-7.551737141186073e-13</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -26317,37 +26317,37 @@
         <v>20526.04424660709</v>
       </c>
       <c r="D2" t="n">
-        <v>20526.04424660707</v>
+        <v>20526.04424660709</v>
       </c>
       <c r="E2" t="n">
-        <v>20178.66499225015</v>
+        <v>20178.66499225014</v>
       </c>
       <c r="F2" t="n">
         <v>20178.66499225015</v>
       </c>
       <c r="G2" t="n">
-        <v>20178.66499225014</v>
+        <v>20178.66499225015</v>
       </c>
       <c r="H2" t="n">
         <v>20178.66499225015</v>
       </c>
       <c r="I2" t="n">
-        <v>20178.66499225014</v>
+        <v>20178.66499225015</v>
       </c>
       <c r="J2" t="n">
+        <v>20526.0442466071</v>
+      </c>
+      <c r="K2" t="n">
+        <v>20526.04424660708</v>
+      </c>
+      <c r="L2" t="n">
         <v>20526.04424660709</v>
       </c>
-      <c r="K2" t="n">
+      <c r="M2" t="n">
+        <v>20526.04424660708</v>
+      </c>
+      <c r="N2" t="n">
         <v>20526.04424660709</v>
-      </c>
-      <c r="L2" t="n">
-        <v>20526.0442466071</v>
-      </c>
-      <c r="M2" t="n">
-        <v>20526.04424660709</v>
-      </c>
-      <c r="N2" t="n">
-        <v>20526.0442466071</v>
       </c>
       <c r="O2" t="n">
         <v>20526.0442466071</v>
@@ -26366,19 +26366,19 @@
         <v>1308430.533701948</v>
       </c>
       <c r="C3" t="n">
-        <v>19312.30676833851</v>
+        <v>19312.30676833847</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073555</v>
+        <v>325412.4618073552</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.574418839027078e-11</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,22 +26387,22 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>232219.4755097968</v>
+        <v>232219.4755097969</v>
       </c>
       <c r="K3" t="n">
-        <v>4661.989000940765</v>
+        <v>4661.98900094064</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.0279355119</v>
+        <v>85055.02793551181</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>19427.71799363177</v>
+        <v>19427.71799363186</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26418,43 +26418,43 @@
         <v>572.0114859742004</v>
       </c>
       <c r="C4" t="n">
-        <v>93596.74410405257</v>
+        <v>93596.74410405256</v>
       </c>
       <c r="D4" t="n">
-        <v>93596.74410405254</v>
+        <v>93596.74410405253</v>
       </c>
       <c r="E4" t="n">
-        <v>14826.69604186726</v>
+        <v>14826.69604186736</v>
       </c>
       <c r="F4" t="n">
         <v>14826.69604186728</v>
       </c>
       <c r="G4" t="n">
-        <v>14826.69604186732</v>
+        <v>14826.69604186736</v>
       </c>
       <c r="H4" t="n">
         <v>14826.69604186738</v>
       </c>
       <c r="I4" t="n">
-        <v>14826.69604186738</v>
+        <v>14826.69604186736</v>
       </c>
       <c r="J4" t="n">
-        <v>22817.55530496086</v>
+        <v>22817.55530496084</v>
       </c>
       <c r="K4" t="n">
+        <v>22817.55530496085</v>
+      </c>
+      <c r="L4" t="n">
+        <v>22817.55530496085</v>
+      </c>
+      <c r="M4" t="n">
         <v>22817.55530496084</v>
-      </c>
-      <c r="L4" t="n">
-        <v>22817.55530496084</v>
-      </c>
-      <c r="M4" t="n">
-        <v>22817.55530496083</v>
       </c>
       <c r="N4" t="n">
         <v>22817.55530496083</v>
       </c>
       <c r="O4" t="n">
-        <v>22817.55530496083</v>
+        <v>22817.55530496082</v>
       </c>
       <c r="P4" t="n">
         <v>22817.55530496084</v>
@@ -26519,7 +26519,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1399282.453730708</v>
+        <v>-1399712.012597297</v>
       </c>
       <c r="C6" t="n">
         <v>-200316.9471871773</v>
@@ -26528,37 +26528,37 @@
         <v>-181004.6404188388</v>
       </c>
       <c r="E6" t="n">
-        <v>-421183.0226808797</v>
+        <v>-421217.7606063152</v>
       </c>
       <c r="F6" t="n">
-        <v>-95770.56087352426</v>
+        <v>-95805.29879895991</v>
       </c>
       <c r="G6" t="n">
-        <v>-95770.56087352433</v>
+        <v>-95805.29879896002</v>
       </c>
       <c r="H6" t="n">
-        <v>-95770.56087352434</v>
+        <v>-95805.29879896002</v>
       </c>
       <c r="I6" t="n">
-        <v>-95770.56087352434</v>
+        <v>-95805.29879896001</v>
       </c>
       <c r="J6" t="n">
         <v>-337675.102422066</v>
       </c>
       <c r="K6" t="n">
-        <v>-110117.6159132099</v>
+        <v>-110117.6159132098</v>
       </c>
       <c r="L6" t="n">
-        <v>-105455.6269122691</v>
+        <v>-105455.6269122692</v>
       </c>
       <c r="M6" t="n">
-        <v>-190510.6548477811</v>
+        <v>-190510.654847781</v>
       </c>
       <c r="N6" t="n">
         <v>-105455.6269122691</v>
       </c>
       <c r="O6" t="n">
-        <v>-124883.3449059009</v>
+        <v>-124883.344905901</v>
       </c>
       <c r="P6" t="n">
         <v>-105455.6269122691</v>
@@ -26707,25 +26707,25 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="K2" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="L2" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="M2" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="N2" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="O2" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="P2" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203975</v>
       </c>
     </row>
     <row r="3">
@@ -26787,22 +26787,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>813.2873580749606</v>
+        <v>813.2873580749608</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="F4" t="n">
         <v>1172.708288099649</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="H4" t="n">
         <v>1172.708288099648</v>
@@ -26920,7 +26920,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26929,7 +26929,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203986</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -26944,7 +26944,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203983</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483759</v>
+        <v>278.1987997483754</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27009,16 +27009,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>813.2873580749606</v>
+        <v>813.2873580749608</v>
       </c>
       <c r="C4" t="n">
-        <v>18.11409732733193</v>
+        <v>18.11409732733182</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.306832697356</v>
+        <v>341.3068326973556</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,16 +27033,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>813.2873580749606</v>
+        <v>813.2873580749608</v>
       </c>
       <c r="K4" t="n">
-        <v>18.11409732733193</v>
+        <v>18.11409732733182</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.306832697356</v>
+        <v>341.3068326973556</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27157,7 +27157,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27166,7 +27166,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203986</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27255,16 +27255,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>813.2873580749606</v>
+        <v>813.2873580749608</v>
       </c>
       <c r="K4" t="n">
-        <v>18.11409732733193</v>
+        <v>18.11409732733182</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.306832697356</v>
+        <v>341.3068326973556</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27613,19 +27613,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>353.0223854144592</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>337.9743263566734</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -27679,7 +27679,7 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27774,10 +27774,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
@@ -27789,10 +27789,10 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27828,16 +27828,16 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
-        <v>249.4880704782985</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>204.7509947629275</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -27850,7 +27850,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -27859,16 +27859,16 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>45.88238975216433</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
         <v>41.57692977292595</v>
@@ -27901,10 +27901,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -27919,7 +27919,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>275.1696129875925</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28017,19 +28017,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28062,22 +28062,22 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>137.7769457025058</v>
       </c>
       <c r="Y10" t="n">
-        <v>152.0303744787468</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -28801,7 +28801,7 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
@@ -28810,7 +28810,7 @@
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
@@ -29038,7 +29038,7 @@
         <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
@@ -29284,7 +29284,7 @@
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="C28" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="D28" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="E28" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="F28" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="G28" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="H28" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="I28" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="J28" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="K28" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="L28" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="M28" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="N28" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="O28" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="P28" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="Q28" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="R28" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="S28" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="T28" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="U28" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="V28" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="W28" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="X28" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="Y28" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203977</v>
       </c>
     </row>
     <row r="29">
@@ -29521,7 +29521,7 @@
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="C31" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="D31" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="E31" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="F31" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="G31" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="H31" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="I31" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="J31" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="K31" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="L31" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="M31" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="N31" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="O31" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="P31" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Q31" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="R31" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="S31" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="T31" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="U31" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="V31" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="W31" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="X31" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Y31" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203971</v>
       </c>
     </row>
     <row r="32">
@@ -29761,7 +29761,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="C34" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="D34" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="E34" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="F34" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="G34" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="H34" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="I34" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="J34" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="K34" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="L34" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="M34" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="N34" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="O34" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="P34" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Q34" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="R34" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="S34" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="T34" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="U34" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="V34" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="W34" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="X34" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Y34" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203971</v>
       </c>
     </row>
     <row r="35">
@@ -29986,7 +29986,7 @@
         <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="D35" t="n">
         <v>0</v>
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="C37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="D37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="E37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="F37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="G37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="H37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="I37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="J37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="K37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="L37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="M37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="N37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="O37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="P37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Q37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="R37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="S37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="T37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="U37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="V37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="W37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="X37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Y37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
     </row>
     <row r="38">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="C40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="D40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="E40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="F40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="G40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="H40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="I40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="J40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="K40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="L40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="M40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="N40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="O40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="P40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="Q40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="R40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="S40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="T40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="U40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="V40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="W40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="X40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="Y40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
     </row>
     <row r="41">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="C43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="D43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="E43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="F43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="G43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="H43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="I43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="J43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="K43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="L43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="M43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="N43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="O43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="P43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="Q43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="R43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="S43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="T43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="U43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="V43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="W43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="X43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="Y43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
     </row>
     <row r="44">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="C46" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="D46" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="E46" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="F46" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="G46" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="H46" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="I46" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="J46" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="K46" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="L46" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="M46" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="N46" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="O46" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="P46" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="Q46" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="R46" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="S46" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="T46" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="U46" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="V46" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="W46" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="X46" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="Y46" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203975</v>
       </c>
     </row>
   </sheetData>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162564</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S11" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,49 +31829,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H12" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422587</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473074</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>339.9772972286962</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071787</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P12" t="n">
-        <v>561.87657862147</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,49 +31908,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P13" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -32072,7 +32072,7 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
         <v>277.9958514420755</v>
@@ -32087,16 +32087,16 @@
         <v>745.5466476862124</v>
       </c>
       <c r="N15" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O15" t="n">
-        <v>370.9642309107737</v>
+        <v>398.7616643558009</v>
       </c>
       <c r="P15" t="n">
-        <v>561.87657862147</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
@@ -32236,7 +32236,7 @@
         <v>466.7546155663284</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817565</v>
+        <v>699.5441750817556</v>
       </c>
       <c r="L17" t="n">
         <v>867.8464071162564</v>
@@ -32309,25 +32309,25 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>220.7280629601513</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L18" t="n">
         <v>638.8832749473074</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862124</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071787</v>
+        <v>403.8524967138015</v>
       </c>
       <c r="O18" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437245</v>
       </c>
       <c r="P18" t="n">
         <v>561.87657862147</v>
@@ -32546,7 +32546,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
         <v>277.9958514420755</v>
@@ -32558,19 +32558,19 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>405.6377363145776</v>
+        <v>593.5422977113961</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P21" t="n">
         <v>561.8765786214698</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
         <v>145.679503963964</v>
@@ -32786,28 +32786,28 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>269.1634560719508</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>463.9598929192557</v>
       </c>
       <c r="O24" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
         <v>145.679503963964</v>
@@ -32944,7 +32944,7 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J26" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663288</v>
       </c>
       <c r="K26" t="n">
         <v>699.5441750817575</v>
@@ -33020,16 +33020,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
         <v>745.5466476862121</v>
@@ -33038,16 +33038,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>171.4104471179106</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
         <v>54.65449286742438</v>
@@ -33257,34 +33257,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742438</v>
@@ -33442,7 +33442,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043729</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S32" t="n">
         <v>125.31755462929</v>
@@ -33500,10 +33500,10 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
         <v>745.5466476862121</v>
@@ -33512,13 +33512,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>248.3870916262918</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
         <v>145.679503963964</v>
@@ -33679,7 +33679,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043729</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S35" t="n">
         <v>125.31755462929</v>
@@ -33883,7 +33883,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
@@ -33895,31 +33895,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L38" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236497</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043729</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S38" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33962,10 +33962,10 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H39" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I39" t="n">
         <v>101.3076196007749</v>
@@ -33974,37 +33974,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M39" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N39" t="n">
-        <v>403.8524967138027</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34044,25 +34044,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34071,19 +34071,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,43 +34120,43 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067217</v>
       </c>
       <c r="J41" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L41" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S41" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34199,10 +34199,10 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H42" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I42" t="n">
         <v>101.3076196007749</v>
@@ -34211,16 +34211,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O42" t="n">
         <v>398.7616643558013</v>
@@ -34235,13 +34235,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34281,25 +34281,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34308,19 +34308,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,7 +34357,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
@@ -34369,31 +34369,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L44" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236497</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043729</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S44" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34436,10 +34436,10 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H45" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I45" t="n">
         <v>101.3076196007749</v>
@@ -34448,37 +34448,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862121</v>
+        <v>301.1823051500296</v>
       </c>
       <c r="N45" t="n">
-        <v>593.5422977113961</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O45" t="n">
         <v>142.5962444444444</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q45" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R45" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34518,25 +34518,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34545,19 +34545,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -35404,34 +35404,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J11" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367772</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902951</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N11" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243163</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35483,31 +35483,31 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754089</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678997</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674332</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
-        <v>197.8432633066779</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238455</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071398</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,22 +35565,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K13" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35720,7 +35720,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774943</v>
       </c>
       <c r="J15" t="n">
         <v>151.1582247754089</v>
@@ -35735,16 +35735,16 @@
         <v>603.412613764194</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O15" t="n">
-        <v>228.3679864663293</v>
+        <v>256.1654199113564</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071398</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35884,7 +35884,7 @@
         <v>285.7087110396421</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367759</v>
+        <v>479.454324036775</v>
       </c>
       <c r="L17" t="n">
         <v>632.0799921462692</v>
@@ -35957,25 +35957,25 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774943</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K18" t="n">
-        <v>82.88662398579231</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L18" t="n">
         <v>500.3288951674332</v>
       </c>
       <c r="M18" t="n">
-        <v>603.412613764194</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238455</v>
+        <v>272.5107846304683</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>557.4845759992801</v>
       </c>
       <c r="P18" t="n">
         <v>427.9021712071398</v>
@@ -36039,7 +36039,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295339</v>
       </c>
       <c r="K19" t="n">
         <v>264.332588409635</v>
@@ -36194,7 +36194,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
@@ -36206,19 +36206,19 @@
         <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>274.2960242312443</v>
+        <v>462.2005856280628</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
         <v>427.9021712071395</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36276,7 +36276,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295329</v>
       </c>
       <c r="K22" t="n">
         <v>264.3325884096349</v>
@@ -36434,28 +36434,28 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>127.0294221499325</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>332.6181808359224</v>
       </c>
       <c r="O24" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36513,25 +36513,25 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295327</v>
       </c>
       <c r="K25" t="n">
-        <v>264.3325884096349</v>
+        <v>264.3325884096348</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191313</v>
       </c>
       <c r="M25" t="n">
         <v>426.2724270010451</v>
       </c>
       <c r="N25" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O25" t="n">
         <v>373.2618997060454</v>
       </c>
       <c r="P25" t="n">
-        <v>295.6317733066249</v>
+        <v>295.6317733066248</v>
       </c>
       <c r="Q25" t="n">
         <v>120.4022572998984</v>
@@ -36592,7 +36592,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J26" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396425</v>
       </c>
       <c r="K26" t="n">
         <v>479.454324036777</v>
@@ -36668,16 +36668,16 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
@@ -36686,16 +36686,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>25.73094315394662</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36905,34 +36905,34 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36990,25 +36990,25 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K31" t="n">
-        <v>288.6172359016747</v>
+        <v>288.6172359016746</v>
       </c>
       <c r="L31" t="n">
-        <v>418.6266618111712</v>
+        <v>418.6266618111711</v>
       </c>
       <c r="M31" t="n">
-        <v>450.5570744930849</v>
+        <v>450.5570744930848</v>
       </c>
       <c r="N31" t="n">
-        <v>445.9107804819472</v>
+        <v>445.9107804819471</v>
       </c>
       <c r="O31" t="n">
-        <v>397.5465471980852</v>
+        <v>397.5465471980851</v>
       </c>
       <c r="P31" t="n">
         <v>319.9164207986647</v>
       </c>
       <c r="Q31" t="n">
-        <v>144.6869047919381</v>
+        <v>144.686904791938</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37090,7 +37090,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37148,10 +37148,10 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
@@ -37160,13 +37160,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>108.4053175402703</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37227,16 +37227,16 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K34" t="n">
-        <v>288.6172359016747</v>
+        <v>288.6172359016746</v>
       </c>
       <c r="L34" t="n">
-        <v>418.6266618111712</v>
+        <v>418.6266618111711</v>
       </c>
       <c r="M34" t="n">
-        <v>450.5570744930849</v>
+        <v>450.5570744930848</v>
       </c>
       <c r="N34" t="n">
-        <v>445.9107804819472</v>
+        <v>445.9107804819471</v>
       </c>
       <c r="O34" t="n">
         <v>397.5465471980851</v>
@@ -37245,7 +37245,7 @@
         <v>319.9164207986647</v>
       </c>
       <c r="Q34" t="n">
-        <v>144.6869047919381</v>
+        <v>144.686904791938</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37327,7 +37327,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37482,7 +37482,7 @@
         <v>319.9164207986647</v>
       </c>
       <c r="Q37" t="n">
-        <v>144.6869047919381</v>
+        <v>144.686904791938</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37537,34 +37537,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L38" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O38" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683802</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37616,7 +37616,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
@@ -37625,22 +37625,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>272.5107846304694</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37701,19 +37701,19 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K40" t="n">
-        <v>288.6172359016746</v>
+        <v>288.6172359016747</v>
       </c>
       <c r="L40" t="n">
-        <v>418.6266618111711</v>
+        <v>418.6266618111712</v>
       </c>
       <c r="M40" t="n">
-        <v>450.5570744930848</v>
+        <v>450.5570744930849</v>
       </c>
       <c r="N40" t="n">
-        <v>445.9107804819471</v>
+        <v>445.9107804819472</v>
       </c>
       <c r="O40" t="n">
-        <v>397.5465471980851</v>
+        <v>397.5465471980852</v>
       </c>
       <c r="P40" t="n">
         <v>319.9164207986647</v>
@@ -37774,34 +37774,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317809</v>
+        <v>1.5396902363158</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L41" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O41" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37853,7 +37853,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
@@ -37862,13 +37862,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O42" t="n">
         <v>256.1654199113569</v>
@@ -37938,19 +37938,19 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K43" t="n">
-        <v>288.6172359016746</v>
+        <v>288.6172359016747</v>
       </c>
       <c r="L43" t="n">
-        <v>418.6266618111711</v>
+        <v>418.6266618111712</v>
       </c>
       <c r="M43" t="n">
-        <v>450.5570744930848</v>
+        <v>450.5570744930849</v>
       </c>
       <c r="N43" t="n">
         <v>445.9107804819471</v>
       </c>
       <c r="O43" t="n">
-        <v>397.5465471980851</v>
+        <v>397.5465471980852</v>
       </c>
       <c r="P43" t="n">
         <v>319.9164207986647</v>
@@ -38011,34 +38011,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L44" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O44" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683802</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38090,7 +38090,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
@@ -38099,25 +38099,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M45" t="n">
-        <v>603.4126137641938</v>
+        <v>159.0482712280113</v>
       </c>
       <c r="N45" t="n">
-        <v>462.2005856280628</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O45" t="n">
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,13 +38172,13 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>105.3311307549931</v>
+        <v>105.3311307549932</v>
       </c>
       <c r="K46" t="n">
-        <v>288.6172359016747</v>
+        <v>288.6172359016748</v>
       </c>
       <c r="L46" t="n">
-        <v>418.6266618111712</v>
+        <v>418.6266618111713</v>
       </c>
       <c r="M46" t="n">
         <v>450.5570744930849</v>
@@ -38190,7 +38190,7 @@
         <v>397.5465471980852</v>
       </c>
       <c r="P46" t="n">
-        <v>319.9164207986647</v>
+        <v>319.9164207986648</v>
       </c>
       <c r="Q46" t="n">
         <v>144.6869047919381</v>
